--- a/@document/ریاضی/سلطانی/khali.xlsx
+++ b/@document/ریاضی/سلطانی/khali.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\home-pc\source\repos\nasleghalam\@document\word question temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hosein\Desktop\Project NasleGhalam\@document\ریاضی\سلطانی\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20988" windowHeight="9156"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20985" windowHeight="9150"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>نوع سوال</t>
   </si>
@@ -90,6 +90,9 @@
   </si>
   <si>
     <t>گزینه صحیح</t>
+  </si>
+  <si>
+    <t>شماره ناظر</t>
   </si>
 </sst>
 </file>
@@ -100,7 +103,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -490,30 +493,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W31"/>
+  <dimension ref="A1:X31"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:W5"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="X1" sqref="X1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.59765625" customWidth="1"/>
+    <col min="2" max="2" width="10.5703125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="6" max="6" width="8.59765625" customWidth="1"/>
-    <col min="7" max="7" width="10.69921875" customWidth="1"/>
-    <col min="11" max="11" width="15.3984375" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" customWidth="1"/>
+    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" customWidth="1"/>
     <col min="12" max="12" width="11" customWidth="1"/>
-    <col min="14" max="14" width="10.3984375" customWidth="1"/>
-    <col min="15" max="15" width="21.09765625" customWidth="1"/>
-    <col min="16" max="16" width="9.3984375" customWidth="1"/>
-    <col min="17" max="17" width="15.8984375" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" customWidth="1"/>
+    <col min="15" max="15" width="21.140625" customWidth="1"/>
+    <col min="16" max="16" width="9.42578125" customWidth="1"/>
+    <col min="17" max="17" width="15.85546875" customWidth="1"/>
     <col min="18" max="18" width="10" customWidth="1"/>
-    <col min="20" max="20" width="11.296875" customWidth="1"/>
-    <col min="21" max="21" width="18.69921875" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
+    <col min="21" max="21" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="16.8" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:24" ht="18" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -583,11 +586,14 @@
       <c r="W1" s="3" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="T2" s="2"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="D3" s="2"/>
@@ -602,7 +608,7 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="D4" s="2"/>
@@ -617,7 +623,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="D5" s="2"/>
@@ -632,7 +638,7 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="D6" s="2"/>
@@ -647,7 +653,7 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="D7" s="2"/>
@@ -662,7 +668,7 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="D8" s="2"/>
@@ -677,7 +683,7 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="D9" s="2"/>
@@ -692,7 +698,7 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="D10" s="2"/>
@@ -707,7 +713,7 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="D11" s="2"/>
@@ -722,7 +728,7 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="D12" s="2"/>
@@ -737,7 +743,7 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="D13" s="2"/>
@@ -752,7 +758,7 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="D14" s="2"/>
@@ -767,7 +773,7 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="D15" s="2"/>
@@ -782,7 +788,7 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2"/>
       <c r="B16" s="2"/>
       <c r="D16" s="2"/>
@@ -1016,7 +1022,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1028,7 +1034,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
